--- a/data/trans_bre/P50_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P50_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,89</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>13,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,17%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-8,25%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,13%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-3,44%</t>
+          <t>4,37%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>35,49%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 6,23</t>
+          <t>-12,36; 19,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 15,77</t>
+          <t>-11,46; 18,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 4,99</t>
+          <t>-7,06; 11,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 6,63</t>
+          <t>-9,7; 8,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 7,34</t>
+          <t>-1,06; 28,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 13,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 44,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-23,58; 11,53</t>
+          <t>-22,57; 55,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 18,26</t>
+          <t>-22,47; 59,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-18,33; 13,82</t>
+          <t>-15,72; 33,06</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-19,74; 22,64</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 107,0</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>8,06</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>7,66</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-0,62%</t>
+          <t>26,28%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13,55%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>24,12%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 11,79</t>
+          <t>-8,43; 9,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 7,52</t>
+          <t>-2,64; 12,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 12,69</t>
+          <t>1,64; 14,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 11,16</t>
+          <t>-2,5; 10,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 6,27</t>
+          <t>0,08; 15,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 37,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,46; 26,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,12; 43,18</t>
+          <t>-20,39; 31,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 39,54</t>
+          <t>-8,06; 55,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 14,7</t>
+          <t>4,43; 55,1</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-7,03; 35,56</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 55,95</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,7</t>
+          <t>6,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,99</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-15,71%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>37,92%</t>
+          <t>29,06%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>-19,51%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>30,84%</t>
+          <t>45,89%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>15,71%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,4%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 8,47</t>
+          <t>-3,0; 12,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 2,92</t>
+          <t>-11,28; 2,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 10,39</t>
+          <t>0,66; 11,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 7,7</t>
+          <t>-3,35; 7,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 16,3</t>
+          <t>-7,72; 7,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 43,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-38,34; 18,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 86,71</t>
+          <t>-14,67; 97,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 56,7</t>
+          <t>-46,92; 20,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 82,25</t>
+          <t>3,01; 113,82</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-16,4; 56,27</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-30,11; 45,68</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>-3,17%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,51%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 8,03</t>
+          <t>-0,08; 9,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 5,88</t>
+          <t>-6,03; 7,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 8,0</t>
+          <t>-10,11; 6,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 6,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 5,52</t>
+          <t>-7,64; 8,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 25,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 21,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 28,91</t>
+          <t>-0,41; 28,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 25,63</t>
+          <t>-15,67; 26,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 12,96</t>
+          <t>-23,89; 18,13</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-19,52; 26,66</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4,14</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,25</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,97</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4,84</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12,24%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,18%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14,22%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10,07%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>15,76%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 7,86</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 5,65</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 8,03</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 6,67</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 9,57</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,76; 25,07</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-7,13; 20,5</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2,98; 28,64</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,03; 24,81</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,11; 32,96</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
